--- a/adminfin2/repaso.xlsx
+++ b/adminfin2/repaso.xlsx
@@ -1,27 +1,228 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\3_1\adminfin2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA102D7-669F-48AA-97ED-7E72972B5F72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="15045" yWindow="2685" windowWidth="13755" windowHeight="11355" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="IndustriaFutura" sheetId="1" r:id="rId1"/>
+    <sheet name="PapeleraDelItsmo" sheetId="2" r:id="rId2"/>
+    <sheet name="JugosPreparados" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+  <si>
+    <t>Ventas actuales</t>
+  </si>
+  <si>
+    <t>Ventas adicionales</t>
+  </si>
+  <si>
+    <t>Eq. Nuevo</t>
+  </si>
+  <si>
+    <t>Inversión</t>
+  </si>
+  <si>
+    <t>Depreciación</t>
+  </si>
+  <si>
+    <t>años, linea recta</t>
+  </si>
+  <si>
+    <t>VM año 5</t>
+  </si>
+  <si>
+    <t>VL año 5</t>
+  </si>
+  <si>
+    <t>Impuesto</t>
+  </si>
+  <si>
+    <t>Ganancia</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
+  <si>
+    <t>Análisis Marginal</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>Margen Bruto</t>
+  </si>
+  <si>
+    <t>Costos fijos</t>
+  </si>
+  <si>
+    <t>Depreciación Eq. Nuevo</t>
+  </si>
+  <si>
+    <t>UAISR</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>FCN</t>
+  </si>
+  <si>
+    <t>TIR</t>
+  </si>
+  <si>
+    <t>VPN</t>
+  </si>
+  <si>
+    <t>No invertir.</t>
+  </si>
+  <si>
+    <t>Maquina N.</t>
+  </si>
+  <si>
+    <t>Remodelación</t>
+  </si>
+  <si>
+    <t>Amortización</t>
+  </si>
+  <si>
+    <t>Depreciación.</t>
+  </si>
+  <si>
+    <t>Analisis Marginal</t>
+  </si>
+  <si>
+    <t>Utilidad Bruta</t>
+  </si>
+  <si>
+    <t>Costos operativos</t>
+  </si>
+  <si>
+    <t>Amort</t>
+  </si>
+  <si>
+    <t>Remodelacion</t>
+  </si>
+  <si>
+    <t>Si invertir, Td &lt;= TIR &amp; VPN &gt; 0</t>
+  </si>
+  <si>
+    <t>Depreciacion</t>
+  </si>
+  <si>
+    <t>VM año 4</t>
+  </si>
+  <si>
+    <t>Maquina A.</t>
+  </si>
+  <si>
+    <t>VM año 0</t>
+  </si>
+  <si>
+    <t>Capital de trabajo</t>
+  </si>
+  <si>
+    <t>Inversión Año 0</t>
+  </si>
+  <si>
+    <t>Escenario Nuevo</t>
+  </si>
+  <si>
+    <t>Costo de ventas</t>
+  </si>
+  <si>
+    <t>Gts de admin</t>
+  </si>
+  <si>
+    <t>Gts operativos</t>
+  </si>
+  <si>
+    <t>Análisis marginal</t>
+  </si>
+  <si>
+    <t>Costo de venta</t>
+  </si>
+  <si>
+    <t>Gts admin</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>utilidad bruta</t>
+  </si>
+  <si>
+    <t>Maq N.</t>
+  </si>
+  <si>
+    <t>Maq A.</t>
+  </si>
+  <si>
+    <t>VL año 0</t>
+  </si>
+  <si>
+    <t>VL año 4</t>
+  </si>
+  <si>
+    <t>vpn</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -37,7 +238,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,14 +246,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -66,6 +292,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>382076</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>140489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60BD91E4-DCAF-4C6E-8716-54ED8F0BDE2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7286625" y="0"/>
+          <a:ext cx="6135176" cy="5664989"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +605,1569 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>250000</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1">
+        <f>C6-G4</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>120000</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1">
+        <f>G5*10%</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>780000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>850000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>926718</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1010123</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1101034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>250000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>272500</v>
+      </c>
+      <c r="D9" s="1">
+        <v>297025</v>
+      </c>
+      <c r="E9" s="1">
+        <v>323757</v>
+      </c>
+      <c r="F9" s="1">
+        <v>352895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <f>B9</f>
+        <v>250000</v>
+      </c>
+      <c r="D13" s="1">
+        <f>C9</f>
+        <v>272500</v>
+      </c>
+      <c r="E13" s="1">
+        <f>D9</f>
+        <v>297025</v>
+      </c>
+      <c r="F13" s="1">
+        <f>E9</f>
+        <v>323757</v>
+      </c>
+      <c r="G13" s="1">
+        <f>F9</f>
+        <v>352895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4">
+        <f>C13*$H$14</f>
+        <v>150000</v>
+      </c>
+      <c r="D14" s="4">
+        <f>D13*$H$14</f>
+        <v>163500</v>
+      </c>
+      <c r="E14" s="4">
+        <f>E13*$H$14</f>
+        <v>178215</v>
+      </c>
+      <c r="F14" s="4">
+        <f>F13*$H$14</f>
+        <v>194254.19999999998</v>
+      </c>
+      <c r="G14" s="4">
+        <f>G13*$H$14</f>
+        <v>211737</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" ref="C15:F15" si="0">$H$15</f>
+        <v>-90000</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>-90000</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>-90000</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>-90000</v>
+      </c>
+      <c r="G15" s="6">
+        <f>$H$15</f>
+        <v>-90000</v>
+      </c>
+      <c r="H15" s="6">
+        <v>-90000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <f>-$C$4/$C$5</f>
+        <v>-83333.333333333328</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" ref="D16:E16" si="1">-$C$4/$C$5</f>
+        <v>-83333.333333333328</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="1"/>
+        <v>-83333.333333333328</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4">
+        <f>SUM(C14:C16)</f>
+        <v>-23333.333333333328</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ref="D17:G17" si="2">SUM(D14:D16)</f>
+        <v>-9833.3333333333285</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="2"/>
+        <v>4881.6666666666715</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="2"/>
+        <v>104254.19999999998</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="2"/>
+        <v>121737</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <f>-C17*$H$18</f>
+        <v>5833.3333333333321</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" ref="D18:G18" si="3">-D17*$H$18</f>
+        <v>2458.3333333333321</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="3"/>
+        <v>-1220.4166666666679</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>-26063.549999999996</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="3"/>
+        <v>-30434.25</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4">
+        <f>SUM(C17:C18)</f>
+        <v>-17499.999999999996</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="4">SUM(D17:D18)</f>
+        <v>-7374.9999999999964</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="4"/>
+        <v>3661.2500000000036</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="4"/>
+        <v>78190.649999999994</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="4"/>
+        <v>91302.75</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <f>-C16</f>
+        <v>83333.333333333328</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" ref="D20:E20" si="5">-D16</f>
+        <v>83333.333333333328</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="5"/>
+        <v>83333.333333333328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <f>-C4</f>
+        <v>-250000</v>
+      </c>
+      <c r="G21" s="1">
+        <f>G5-G6</f>
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1">
+        <f>SUM(B19:B21)</f>
+        <v>-250000</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" ref="C22:G22" si="6">SUM(C19:C21)</f>
+        <v>65833.333333333328</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="6"/>
+        <v>75958.333333333328</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="6"/>
+        <v>86994.583333333328</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="6"/>
+        <v>78190.649999999994</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="6"/>
+        <v>199302.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <f>IRR(B22:G22)</f>
+        <v>0.23866050441053899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="7">
+        <f>NPV(B2,C22:G22)+B22</f>
+        <v>-6844.3579733333609</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF976F5-802F-414F-9761-83BC4DB10AA5}">
+  <dimension ref="A3:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8">
+        <f>8%+(1.4*(16%-8%))</f>
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>900000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <f>C7-G5</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f>C5*20%</f>
+        <v>180000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <f>G6*10%</f>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
+        <f>3500*$H$15*1000</f>
+        <v>700000</v>
+      </c>
+      <c r="D15" s="1">
+        <f>3780*H15*1000</f>
+        <v>756000</v>
+      </c>
+      <c r="E15" s="1">
+        <f>4082.4*$H$15*1000</f>
+        <v>816480</v>
+      </c>
+      <c r="F15" s="1">
+        <f>4408.99*H15*1000</f>
+        <v>881798</v>
+      </c>
+      <c r="G15" s="1">
+        <f>4761.71*H15*1000</f>
+        <v>952342.00000000012</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="11">
+        <f>C15*$H$16</f>
+        <v>350000</v>
+      </c>
+      <c r="D16" s="11">
+        <f t="shared" ref="D16:G16" si="0">D15*$H$16</f>
+        <v>378000</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="0"/>
+        <v>408240</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="0"/>
+        <v>440899</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>476171.00000000006</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1">
+        <f>-C15*$H$17</f>
+        <v>-7000</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" ref="D17:G17" si="1">-D15*$H$17</f>
+        <v>-7560</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>-8164.8</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>-8817.98</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>-9523.4200000000019</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1">
+        <f>-$C$5/$C$6</f>
+        <v>-180000</v>
+      </c>
+      <c r="D18" s="1">
+        <f>-$C$5/$C$6</f>
+        <v>-180000</v>
+      </c>
+      <c r="E18" s="1">
+        <f>-$C$5/$C$6</f>
+        <v>-180000</v>
+      </c>
+      <c r="F18" s="1">
+        <f>-$C$5/$C$6</f>
+        <v>-180000</v>
+      </c>
+      <c r="G18" s="1">
+        <f>-$C$5/$C$6</f>
+        <v>-180000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1">
+        <f>-$C$9/$C$10</f>
+        <v>-66666.666666666672</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:E19" si="2">-$C$9/$C$10</f>
+        <v>-66666.666666666672</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>-66666.666666666672</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="14">
+        <f>SUM(B16:B18)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="14">
+        <f>SUM(C16:C19)</f>
+        <v>96333.333333333328</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" ref="D20:G20" si="3">SUM(D16:D19)</f>
+        <v>123773.33333333333</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="3"/>
+        <v>153408.53333333333</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="3"/>
+        <v>252081.02000000002</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" si="3"/>
+        <v>286647.58000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <f>-B20*$H$21</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" ref="C21:G21" si="4">-C20*$H$21</f>
+        <v>-24083.333333333332</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="4"/>
+        <v>-30943.333333333332</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="4"/>
+        <v>-38352.133333333331</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="4"/>
+        <v>-63020.255000000005</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="4"/>
+        <v>-71661.895000000019</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="12">
+        <f>SUM(B20:B21)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <f t="shared" ref="C22:G22" si="5">SUM(C20:C21)</f>
+        <v>72250</v>
+      </c>
+      <c r="D22" s="12">
+        <f t="shared" si="5"/>
+        <v>92830</v>
+      </c>
+      <c r="E22" s="12">
+        <f t="shared" si="5"/>
+        <v>115056.4</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="5"/>
+        <v>189060.76500000001</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" si="5"/>
+        <v>214985.68500000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="12">
+        <f>-C18</f>
+        <v>180000</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" ref="D23:G23" si="6">-D18</f>
+        <v>180000</v>
+      </c>
+      <c r="E23" s="12">
+        <f t="shared" si="6"/>
+        <v>180000</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="6"/>
+        <v>180000</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" si="6"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="12">
+        <f>-C19</f>
+        <v>66666.666666666672</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" ref="D24:G24" si="7">-D19</f>
+        <v>66666.666666666672</v>
+      </c>
+      <c r="E24" s="12">
+        <f t="shared" si="7"/>
+        <v>66666.666666666672</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9">
+        <f>-C5</f>
+        <v>-900000</v>
+      </c>
+      <c r="G25">
+        <f>G6-G7</f>
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="9">
+        <f>-C9</f>
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="12">
+        <f>SUM(B22:B26)</f>
+        <v>-1100000</v>
+      </c>
+      <c r="C27" s="12">
+        <f t="shared" ref="C27:G27" si="8">SUM(C22:C26)</f>
+        <v>318916.66666666669</v>
+      </c>
+      <c r="D27" s="12">
+        <f t="shared" si="8"/>
+        <v>339496.66666666669</v>
+      </c>
+      <c r="E27" s="12">
+        <f t="shared" si="8"/>
+        <v>361723.06666666671</v>
+      </c>
+      <c r="F27" s="12">
+        <f t="shared" si="8"/>
+        <v>369060.76500000001</v>
+      </c>
+      <c r="G27" s="12">
+        <f t="shared" si="8"/>
+        <v>556985.68500000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="12">
+        <f>NPV(B3,C27:G27)+B27</f>
+        <v>34317.837152660126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="10">
+        <f>IRR(B27:G27)</f>
+        <v>0.20480306380341684</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC14092-C330-4CF5-B42E-1532166FD446}">
+  <dimension ref="A3:G48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1">
+        <f>C5-(C5/C6)*4</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1">
+        <f>C7-F5</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1">
+        <v>250000</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1">
+        <f>F6*10%</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1">
+        <f>C8-C9</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1">
+        <v>140000</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <f>E8*10%</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <f>3400000*(1+$G$15)</f>
+        <v>3909999.9999999995</v>
+      </c>
+      <c r="D15" s="1">
+        <f>3740000*(1+G15)</f>
+        <v>4301000</v>
+      </c>
+      <c r="E15" s="1">
+        <f>4114*1000*(1+G15)</f>
+        <v>4731100</v>
+      </c>
+      <c r="F15" s="1">
+        <f>4525.4*1000*(1+G15)</f>
+        <v>5204210</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1">
+        <f>-$G$16*C15</f>
+        <v>-2541500</v>
+      </c>
+      <c r="D16" s="1">
+        <f>-$G$16*D15</f>
+        <v>-2795650</v>
+      </c>
+      <c r="E16" s="1">
+        <f>-$G$16*E15</f>
+        <v>-3075215</v>
+      </c>
+      <c r="F16" s="1">
+        <f>-$G$16*F15</f>
+        <v>-3382736.5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1">
+        <f>-C15*$G$17</f>
+        <v>-195500</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" ref="D17:F17" si="0">-D15*$G$17</f>
+        <v>-215050</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>-236555</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>-260210.5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1">
+        <f>-C15*$G$18</f>
+        <v>-351899.99999999994</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" ref="D18:F18" si="1">-D15*$G$18</f>
+        <v>-387090</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>-425799</v>
+      </c>
+      <c r="F18" s="1">
+        <f>-F15*$G$18</f>
+        <v>-468378.89999999997</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1">
+        <f>-$C$5/$C$6</f>
+        <v>-200000</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:F19" si="2">-$C$5/$C$6</f>
+        <v>-200000</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>-200000</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3400000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3740000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4114000</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4525000.4000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-2380000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-2618000</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-2879000.8</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-3167000.78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-170000</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-187000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-205000.7</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-226000.27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-340000</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-374000</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-411000.4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-452000.54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-70000</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-70000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3">
+        <v>3</v>
+      </c>
+      <c r="F31" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1">
+        <f>C15-C22</f>
+        <v>509999.99999999953</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" ref="D32:F32" si="3">D15-D22</f>
+        <v>561000</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="3"/>
+        <v>617100</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="3"/>
+        <v>679209.59999999963</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="1">
+        <f>C16-C23</f>
+        <v>-161500</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" ref="D33:F33" si="4">D16-D23</f>
+        <v>-177650</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="4"/>
+        <v>-196214.20000000019</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="4"/>
+        <v>-215735.7200000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4">
+        <f>SUM(C32:C33)</f>
+        <v>348499.99999999953</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" ref="D34:F34" si="5">SUM(D32:D33)</f>
+        <v>383350</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="5"/>
+        <v>420885.79999999981</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="5"/>
+        <v>463473.87999999942</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="1">
+        <f>C17-C24</f>
+        <v>-25500</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" ref="D35:F35" si="6">D17-D24</f>
+        <v>-28050</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="6"/>
+        <v>-31554.299999999988</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="6"/>
+        <v>-34210.23000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="1">
+        <f>C18-C25</f>
+        <v>-11899.999999999942</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" ref="D36:F36" si="7">D18-D25</f>
+        <v>-13090</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="7"/>
+        <v>-14798.599999999977</v>
+      </c>
+      <c r="F36" s="1">
+        <f>F18-F25</f>
+        <v>-16378.359999999986</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1">
+        <f>C19-C26</f>
+        <v>-130000</v>
+      </c>
+      <c r="D37" s="1">
+        <f>D19-D26</f>
+        <v>-130000</v>
+      </c>
+      <c r="E37" s="1">
+        <f>E19-E26</f>
+        <v>-200000</v>
+      </c>
+      <c r="F37" s="1">
+        <f>F19-F26</f>
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="4">
+        <f>SUM(B34:B37)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" ref="C38:F38" si="8">SUM(C34:C37)</f>
+        <v>181099.99999999959</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="8"/>
+        <v>212210</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="8"/>
+        <v>174532.89999999985</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="8"/>
+        <v>212885.28999999946</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="1">
+        <f>-B38*$G$39</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" ref="C39:F39" si="9">-C38*$G$39</f>
+        <v>-45274.999999999898</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="9"/>
+        <v>-53052.5</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="9"/>
+        <v>-43633.224999999962</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="9"/>
+        <v>-53221.322499999864</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="4">
+        <f>SUM(B38:B39)</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" ref="C40:F40" si="10">SUM(C38:C39)</f>
+        <v>135824.99999999971</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="10"/>
+        <v>159157.5</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="10"/>
+        <v>130899.67499999989</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="10"/>
+        <v>159663.96749999959</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="1">
+        <f>-B37</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <f>-C37</f>
+        <v>130000</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" ref="C41:F41" si="11">-D37</f>
+        <v>130000</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="11"/>
+        <v>200000</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="11"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="1">
+        <f>-$C$5/2</f>
+        <v>-500000</v>
+      </c>
+      <c r="D42" s="1">
+        <f>-$C$5/2</f>
+        <v>-500000</v>
+      </c>
+      <c r="F42" s="1">
+        <f>F6-F7</f>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="1">
+        <f>C9+E8-E9</f>
+        <v>149000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="1">
+        <f>-C10</f>
+        <v>-300000</v>
+      </c>
+      <c r="F44" s="1">
+        <f>C10</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="1">
+        <f>SUM(B40:B44)</f>
+        <v>-151000</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" ref="C45:F45" si="12">SUM(C40:C44)</f>
+        <v>-234175.00000000029</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="12"/>
+        <v>-210842.5</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="12"/>
+        <v>330899.67499999987</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="12"/>
+        <v>704663.96749999956</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="1">
+        <f>NPV(B3,C45:F45)+B45</f>
+        <v>4936.7633758052834</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="2">
+        <f>IRR(B45:F45)</f>
+        <v>0.23473541234856343</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>